--- a/data/pca/factorExposure/factorExposure_2016-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01245496551646328</v>
+        <v>0.0160416421896214</v>
       </c>
       <c r="C2">
-        <v>-0.0589294863162173</v>
+        <v>0.04116277685017697</v>
       </c>
       <c r="D2">
-        <v>-0.03927868900781595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.073552131741076</v>
+      </c>
+      <c r="E2">
+        <v>-0.1105049161782605</v>
+      </c>
+      <c r="F2">
+        <v>0.07259605765155049</v>
+      </c>
+      <c r="G2">
+        <v>0.02689930531797348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04124046248031557</v>
+        <v>0.02554805488512508</v>
       </c>
       <c r="C3">
-        <v>-0.1219730709606656</v>
+        <v>0.06741441574405155</v>
       </c>
       <c r="D3">
-        <v>-0.08200208648606615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07982102859133108</v>
+      </c>
+      <c r="E3">
+        <v>-0.07056650848122743</v>
+      </c>
+      <c r="F3">
+        <v>-0.03875686813722319</v>
+      </c>
+      <c r="G3">
+        <v>0.02206671802010163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06281049096432768</v>
+        <v>0.06163840241805732</v>
       </c>
       <c r="C4">
-        <v>-0.06638168782909284</v>
+        <v>0.06488825148869976</v>
       </c>
       <c r="D4">
-        <v>-0.03551133423062672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06924798399210125</v>
+      </c>
+      <c r="E4">
+        <v>-0.1003382620012647</v>
+      </c>
+      <c r="F4">
+        <v>0.0227571050291744</v>
+      </c>
+      <c r="G4">
+        <v>0.07207697385082422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04129591237073405</v>
+        <v>0.03844398272397467</v>
       </c>
       <c r="C6">
-        <v>-0.03654937278397835</v>
+        <v>0.026909176112563</v>
       </c>
       <c r="D6">
-        <v>-0.03376466279267133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0725663909820089</v>
+      </c>
+      <c r="E6">
+        <v>-0.08999673864393708</v>
+      </c>
+      <c r="F6">
+        <v>0.01520628221462463</v>
+      </c>
+      <c r="G6">
+        <v>0.05525764392063787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02900303043963135</v>
+        <v>0.02273520306679944</v>
       </c>
       <c r="C7">
-        <v>-0.03960317905326807</v>
+        <v>0.03632010948505156</v>
       </c>
       <c r="D7">
-        <v>0.002490918721615847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0487182358560168</v>
+      </c>
+      <c r="E7">
+        <v>-0.07589060173092189</v>
+      </c>
+      <c r="F7">
+        <v>0.05020957004283775</v>
+      </c>
+      <c r="G7">
+        <v>0.100872100230632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008385384367462992</v>
+        <v>0.007728541602445294</v>
       </c>
       <c r="C8">
-        <v>-0.04202777041043259</v>
+        <v>0.03500249058068225</v>
       </c>
       <c r="D8">
-        <v>-0.02607962862385501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04350104558243158</v>
+      </c>
+      <c r="E8">
+        <v>-0.06053128391516091</v>
+      </c>
+      <c r="F8">
+        <v>0.01072258492008316</v>
+      </c>
+      <c r="G8">
+        <v>0.03558088467773163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03901109991159588</v>
+        <v>0.04213410934259428</v>
       </c>
       <c r="C9">
-        <v>-0.04784121650998256</v>
+        <v>0.05079139775466823</v>
       </c>
       <c r="D9">
-        <v>-0.01866560006656233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04995103533412195</v>
+      </c>
+      <c r="E9">
+        <v>-0.07828405278021175</v>
+      </c>
+      <c r="F9">
+        <v>0.04035362891359721</v>
+      </c>
+      <c r="G9">
+        <v>0.07631987260779956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07074885248821487</v>
+        <v>0.09836016917058932</v>
       </c>
       <c r="C10">
-        <v>0.1894936383381245</v>
+        <v>-0.2023158782117396</v>
       </c>
       <c r="D10">
-        <v>-0.0005630471690437178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008363118613295037</v>
+      </c>
+      <c r="E10">
+        <v>-0.03682503375821176</v>
+      </c>
+      <c r="F10">
+        <v>0.01475574853928449</v>
+      </c>
+      <c r="G10">
+        <v>0.04027843879248109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04410563325827909</v>
+        <v>0.03856133695586851</v>
       </c>
       <c r="C11">
-        <v>-0.05062835342964812</v>
+        <v>0.04715015950252008</v>
       </c>
       <c r="D11">
-        <v>-0.01485704758364386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03489921920243789</v>
+      </c>
+      <c r="E11">
+        <v>-0.03157774985649125</v>
+      </c>
+      <c r="F11">
+        <v>0.02710303739896397</v>
+      </c>
+      <c r="G11">
+        <v>0.07051113790786895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0458625956602686</v>
+        <v>0.04004570537516531</v>
       </c>
       <c r="C12">
-        <v>-0.04653719199228859</v>
+        <v>0.04580284524119717</v>
       </c>
       <c r="D12">
-        <v>-0.0007990000581035106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02961807046249977</v>
+      </c>
+      <c r="E12">
+        <v>-0.04161818935331142</v>
+      </c>
+      <c r="F12">
+        <v>0.02885844560845026</v>
+      </c>
+      <c r="G12">
+        <v>0.06613524482463055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01732386440393748</v>
+        <v>0.01593447170363897</v>
       </c>
       <c r="C13">
-        <v>-0.05321282096867714</v>
+        <v>0.04237611665823342</v>
       </c>
       <c r="D13">
-        <v>-0.009666765417486466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05930292137643402</v>
+      </c>
+      <c r="E13">
+        <v>-0.1132040267908836</v>
+      </c>
+      <c r="F13">
+        <v>0.04084363712093374</v>
+      </c>
+      <c r="G13">
+        <v>0.0904833036338389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01145343102733315</v>
+        <v>0.00789836530888674</v>
       </c>
       <c r="C14">
-        <v>-0.03536909190596672</v>
+        <v>0.03018492733430872</v>
       </c>
       <c r="D14">
-        <v>0.001004882826144597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03330957246252246</v>
+      </c>
+      <c r="E14">
+        <v>-0.06623389742195769</v>
+      </c>
+      <c r="F14">
+        <v>0.06022335784498416</v>
+      </c>
+      <c r="G14">
+        <v>0.08069613617579793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001958110825106032</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006303696506684772</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01022327342585628</v>
+      </c>
+      <c r="E15">
+        <v>-0.007928605510400536</v>
+      </c>
+      <c r="F15">
+        <v>0.005254613307514874</v>
+      </c>
+      <c r="G15">
+        <v>0.007371055367755776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04173128565196128</v>
+        <v>0.03672303060551765</v>
       </c>
       <c r="C16">
-        <v>-0.04736010580615331</v>
+        <v>0.044084280272669</v>
       </c>
       <c r="D16">
-        <v>-0.003529027351647592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02992487096929907</v>
+      </c>
+      <c r="E16">
+        <v>-0.04672128740085608</v>
+      </c>
+      <c r="F16">
+        <v>0.03973758911875097</v>
+      </c>
+      <c r="G16">
+        <v>0.0576090793602247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02747117709983034</v>
+        <v>0.01941297105765735</v>
       </c>
       <c r="C19">
-        <v>-0.06105694938719636</v>
+        <v>0.04483363466401132</v>
       </c>
       <c r="D19">
-        <v>-0.08949061189525019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09988468053987207</v>
+      </c>
+      <c r="E19">
+        <v>-0.1103903497527426</v>
+      </c>
+      <c r="F19">
+        <v>0.04680918419676784</v>
+      </c>
+      <c r="G19">
+        <v>0.03329315550844014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02117584639571614</v>
+        <v>0.01712094601144147</v>
       </c>
       <c r="C20">
-        <v>-0.04926947309513008</v>
+        <v>0.0400570249598616</v>
       </c>
       <c r="D20">
-        <v>-0.009791749314889582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04360854890099515</v>
+      </c>
+      <c r="E20">
+        <v>-0.08620626736846498</v>
+      </c>
+      <c r="F20">
+        <v>0.04121183527437917</v>
+      </c>
+      <c r="G20">
+        <v>0.06326795525248603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01534887819136636</v>
+        <v>0.01475150293653161</v>
       </c>
       <c r="C21">
-        <v>-0.05448290203862369</v>
+        <v>0.04357581445295415</v>
       </c>
       <c r="D21">
-        <v>-0.03656900482492222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07205813617713103</v>
+      </c>
+      <c r="E21">
+        <v>-0.1349306188265956</v>
+      </c>
+      <c r="F21">
+        <v>0.06640593495056586</v>
+      </c>
+      <c r="G21">
+        <v>0.09107621607481137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006498709480183029</v>
+        <v>0.004696271974004742</v>
       </c>
       <c r="C22">
-        <v>-0.0137162552595268</v>
+        <v>0.0296169489520606</v>
       </c>
       <c r="D22">
-        <v>-0.02562718296647216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06197003393336393</v>
+      </c>
+      <c r="E22">
+        <v>-0.06584668720622538</v>
+      </c>
+      <c r="F22">
+        <v>-0.03105556310851669</v>
+      </c>
+      <c r="G22">
+        <v>0.04853847201260476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006438511841233023</v>
+        <v>0.004792934379673077</v>
       </c>
       <c r="C23">
-        <v>-0.01371321068098037</v>
+        <v>0.02962609554938128</v>
       </c>
       <c r="D23">
-        <v>-0.02555246291106269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06121504849577953</v>
+      </c>
+      <c r="E23">
+        <v>-0.06602586877075238</v>
+      </c>
+      <c r="F23">
+        <v>-0.03114119293687296</v>
+      </c>
+      <c r="G23">
+        <v>0.04863607003635936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03897059173754446</v>
+        <v>0.03790780081691401</v>
       </c>
       <c r="C24">
-        <v>-0.04835284188768063</v>
+        <v>0.05212746347727234</v>
       </c>
       <c r="D24">
-        <v>-0.008985981406750644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03133939257904909</v>
+      </c>
+      <c r="E24">
+        <v>-0.05062154864039523</v>
+      </c>
+      <c r="F24">
+        <v>0.03986853167696368</v>
+      </c>
+      <c r="G24">
+        <v>0.06803061080687028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04999138413700375</v>
+        <v>0.04519499268501886</v>
       </c>
       <c r="C25">
-        <v>-0.0583009560562414</v>
+        <v>0.05506093250161706</v>
       </c>
       <c r="D25">
-        <v>0.001902329791171175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02752277050099651</v>
+      </c>
+      <c r="E25">
+        <v>-0.04114188894871918</v>
+      </c>
+      <c r="F25">
+        <v>0.03027585096834338</v>
+      </c>
+      <c r="G25">
+        <v>0.08179959726831261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01960072079313474</v>
+        <v>0.01784628755820744</v>
       </c>
       <c r="C26">
-        <v>-0.01624866484776503</v>
+        <v>0.01676304952541382</v>
       </c>
       <c r="D26">
-        <v>-0.009458776364922305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03279866931636759</v>
+      </c>
+      <c r="E26">
+        <v>-0.05785415829137449</v>
+      </c>
+      <c r="F26">
+        <v>0.04442631589321439</v>
+      </c>
+      <c r="G26">
+        <v>0.04603428147281192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08833328397511947</v>
+        <v>0.1350251878430173</v>
       </c>
       <c r="C28">
-        <v>0.2579459334468285</v>
+        <v>-0.26070942918955</v>
       </c>
       <c r="D28">
-        <v>0.002740112103893278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02365818555343328</v>
+      </c>
+      <c r="E28">
+        <v>-0.05658251638488143</v>
+      </c>
+      <c r="F28">
+        <v>0.02356424768731387</v>
+      </c>
+      <c r="G28">
+        <v>0.05543610356180594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009754947949059149</v>
+        <v>0.008448409098238654</v>
       </c>
       <c r="C29">
-        <v>-0.03168748811689564</v>
+        <v>0.02847449038247617</v>
       </c>
       <c r="D29">
-        <v>0.008094164068475409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02558973548635902</v>
+      </c>
+      <c r="E29">
+        <v>-0.06466557719888105</v>
+      </c>
+      <c r="F29">
+        <v>0.05120692909919419</v>
+      </c>
+      <c r="G29">
+        <v>0.08573126417423441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04705230549633155</v>
+        <v>0.04608054798657605</v>
       </c>
       <c r="C30">
-        <v>-0.05064897760320527</v>
+        <v>0.05615245859002838</v>
       </c>
       <c r="D30">
-        <v>-0.08324833827909653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1131361169895064</v>
+      </c>
+      <c r="E30">
+        <v>-0.08512135174890549</v>
+      </c>
+      <c r="F30">
+        <v>0.04690541157337078</v>
+      </c>
+      <c r="G30">
+        <v>0.05676785528357674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06382643399398109</v>
+        <v>0.06147247780645014</v>
       </c>
       <c r="C31">
-        <v>-0.04487975245061183</v>
+        <v>0.05993796187787721</v>
       </c>
       <c r="D31">
-        <v>0.0396379361777761</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.008813373587409261</v>
+      </c>
+      <c r="E31">
+        <v>-0.0757293084289888</v>
+      </c>
+      <c r="F31">
+        <v>0.008757081837196656</v>
+      </c>
+      <c r="G31">
+        <v>0.07497167029370318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006635475874885252</v>
+        <v>0.01122715586317719</v>
       </c>
       <c r="C32">
-        <v>-0.03835101527039022</v>
+        <v>0.03415834982168182</v>
       </c>
       <c r="D32">
-        <v>-0.06061439245485738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06380559537182762</v>
+      </c>
+      <c r="E32">
+        <v>-0.06046318676693544</v>
+      </c>
+      <c r="F32">
+        <v>0.05304910245772131</v>
+      </c>
+      <c r="G32">
+        <v>0.06382409622269151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03571728791706354</v>
+        <v>0.02946258733237438</v>
       </c>
       <c r="C33">
-        <v>-0.05916775952560422</v>
+        <v>0.05236430621307416</v>
       </c>
       <c r="D33">
-        <v>-0.04146342054608648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07862511506497426</v>
+      </c>
+      <c r="E33">
+        <v>-0.09217421498412724</v>
+      </c>
+      <c r="F33">
+        <v>0.04649367480437762</v>
+      </c>
+      <c r="G33">
+        <v>0.1007709731929886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04497765676033554</v>
+        <v>0.04128619079060582</v>
       </c>
       <c r="C34">
-        <v>-0.06482812295141334</v>
+        <v>0.06273363257472224</v>
       </c>
       <c r="D34">
-        <v>-0.02038998449831646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03828905990766826</v>
+      </c>
+      <c r="E34">
+        <v>-0.02504597254791305</v>
+      </c>
+      <c r="F34">
+        <v>0.0419671600505849</v>
+      </c>
+      <c r="G34">
+        <v>0.07668564999592038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01919565266142432</v>
+        <v>0.01665274843988566</v>
       </c>
       <c r="C36">
-        <v>-0.01635803059501873</v>
+        <v>0.01323548935346469</v>
       </c>
       <c r="D36">
-        <v>-0.002125349404406444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03172092991185123</v>
+      </c>
+      <c r="E36">
+        <v>-0.06567994115506566</v>
+      </c>
+      <c r="F36">
+        <v>0.03665548172045398</v>
+      </c>
+      <c r="G36">
+        <v>0.06464364566521265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02979050592259005</v>
+        <v>0.02365264566636245</v>
       </c>
       <c r="C38">
-        <v>-0.03150910234623015</v>
+        <v>0.02418351607195822</v>
       </c>
       <c r="D38">
-        <v>0.01401559956657959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0252178849186284</v>
+      </c>
+      <c r="E38">
+        <v>-0.05980442561033775</v>
+      </c>
+      <c r="F38">
+        <v>0.02786417747940203</v>
+      </c>
+      <c r="G38">
+        <v>0.04096803867522347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04952556060653236</v>
+        <v>0.0436073740402881</v>
       </c>
       <c r="C39">
-        <v>-0.05929135918050247</v>
+        <v>0.06145517920331811</v>
       </c>
       <c r="D39">
-        <v>-0.02215130134455316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05850250223843846</v>
+      </c>
+      <c r="E39">
+        <v>-0.05904262233405718</v>
+      </c>
+      <c r="F39">
+        <v>0.0603902080174856</v>
+      </c>
+      <c r="G39">
+        <v>0.06511837637510318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01345276813553013</v>
+        <v>0.01602102489459893</v>
       </c>
       <c r="C40">
-        <v>-0.05317989308790912</v>
+        <v>0.03861163029054447</v>
       </c>
       <c r="D40">
-        <v>-0.009780453056003479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0398735202440994</v>
+      </c>
+      <c r="E40">
+        <v>-0.1002204006208214</v>
+      </c>
+      <c r="F40">
+        <v>0.02147504794397163</v>
+      </c>
+      <c r="G40">
+        <v>0.09389727790909842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02448676710829949</v>
+        <v>0.02105238042885473</v>
       </c>
       <c r="C41">
-        <v>-0.01409234743667863</v>
+        <v>0.009502059293650512</v>
       </c>
       <c r="D41">
-        <v>-0.001292750326214848</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02183795892038004</v>
+      </c>
+      <c r="E41">
+        <v>-0.0671912993472689</v>
+      </c>
+      <c r="F41">
+        <v>0.03162365307354982</v>
+      </c>
+      <c r="G41">
+        <v>0.05112638205445544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04687933711996673</v>
+        <v>0.03315777277872911</v>
       </c>
       <c r="C43">
-        <v>-0.03377014488612945</v>
+        <v>0.02439678785647674</v>
       </c>
       <c r="D43">
-        <v>-0.02304158270657832</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05169334656524677</v>
+      </c>
+      <c r="E43">
+        <v>-0.08151454856368344</v>
+      </c>
+      <c r="F43">
+        <v>0.0198611850635623</v>
+      </c>
+      <c r="G43">
+        <v>0.07155401138049611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01914467661765943</v>
+        <v>0.0197932682205635</v>
       </c>
       <c r="C44">
-        <v>-0.06914910195137443</v>
+        <v>0.04813492783742292</v>
       </c>
       <c r="D44">
-        <v>-0.001057217286410066</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0408912562772446</v>
+      </c>
+      <c r="E44">
+        <v>-0.09471683477323381</v>
+      </c>
+      <c r="F44">
+        <v>0.05092995857124112</v>
+      </c>
+      <c r="G44">
+        <v>0.05255196143185768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01387118216337353</v>
+        <v>0.01332159666709407</v>
       </c>
       <c r="C46">
-        <v>-0.02517468237330885</v>
+        <v>0.02845086614194841</v>
       </c>
       <c r="D46">
-        <v>0.009563627164960217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02386782075982531</v>
+      </c>
+      <c r="E46">
+        <v>-0.07768295988686133</v>
+      </c>
+      <c r="F46">
+        <v>0.05751627894335968</v>
+      </c>
+      <c r="G46">
+        <v>0.07783002639647335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09210196296160905</v>
+        <v>0.09437567845587837</v>
       </c>
       <c r="C47">
-        <v>-0.06393719522867984</v>
+        <v>0.07715150650700223</v>
       </c>
       <c r="D47">
-        <v>0.04645131042062336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01831327272175668</v>
+      </c>
+      <c r="E47">
+        <v>-0.07080325109404312</v>
+      </c>
+      <c r="F47">
+        <v>0.01153133262663727</v>
+      </c>
+      <c r="G47">
+        <v>0.07619753438785762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02095798630127505</v>
+        <v>0.01930983898903706</v>
       </c>
       <c r="C48">
-        <v>-0.01343120150510712</v>
+        <v>0.01574603977624925</v>
       </c>
       <c r="D48">
-        <v>0.01379198652508884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01975817451744866</v>
+      </c>
+      <c r="E48">
+        <v>-0.08216854075354613</v>
+      </c>
+      <c r="F48">
+        <v>0.04964282020982107</v>
+      </c>
+      <c r="G48">
+        <v>0.06953822737282533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08641212249993589</v>
+        <v>0.07399554420703931</v>
       </c>
       <c r="C50">
-        <v>-0.0796475573959388</v>
+        <v>0.0728448933525075</v>
       </c>
       <c r="D50">
-        <v>0.04195063879170349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0003914104662894784</v>
+      </c>
+      <c r="E50">
+        <v>-0.08325262571495069</v>
+      </c>
+      <c r="F50">
+        <v>-0.02076495736622077</v>
+      </c>
+      <c r="G50">
+        <v>0.07980064451877147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01579283356229851</v>
+        <v>0.01179334477216209</v>
       </c>
       <c r="C51">
-        <v>-0.04758249817691809</v>
+        <v>0.03071160285903499</v>
       </c>
       <c r="D51">
-        <v>-0.04803258869508582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06466920481581531</v>
+      </c>
+      <c r="E51">
+        <v>-0.06540565840324376</v>
+      </c>
+      <c r="F51">
+        <v>0.04812312485150674</v>
+      </c>
+      <c r="G51">
+        <v>0.05321355393641308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08520826921996705</v>
+        <v>0.09911769082137616</v>
       </c>
       <c r="C53">
-        <v>-0.07597669892684523</v>
+        <v>0.08333326657612813</v>
       </c>
       <c r="D53">
-        <v>0.06805489746307808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05805712747622743</v>
+      </c>
+      <c r="E53">
+        <v>-0.07630717252443778</v>
+      </c>
+      <c r="F53">
+        <v>0.01784675503769322</v>
+      </c>
+      <c r="G53">
+        <v>0.07590441312703196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03831533741816314</v>
+        <v>0.03178317328802899</v>
       </c>
       <c r="C54">
-        <v>-0.03260693602004593</v>
+        <v>0.03046851323496513</v>
       </c>
       <c r="D54">
-        <v>-0.001667350569573226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03316136067674696</v>
+      </c>
+      <c r="E54">
+        <v>-0.06744882357481614</v>
+      </c>
+      <c r="F54">
+        <v>0.05322404330026701</v>
+      </c>
+      <c r="G54">
+        <v>0.0851130182883246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08082555446589897</v>
+        <v>0.09115210676030261</v>
       </c>
       <c r="C55">
-        <v>-0.05060333141864224</v>
+        <v>0.06513686385715504</v>
       </c>
       <c r="D55">
-        <v>0.07082183761374612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05813975338101587</v>
+      </c>
+      <c r="E55">
+        <v>-0.05321289839305636</v>
+      </c>
+      <c r="F55">
+        <v>-0.003655228839642724</v>
+      </c>
+      <c r="G55">
+        <v>0.05342751847896744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1545018642780283</v>
+        <v>0.1566607940953791</v>
       </c>
       <c r="C56">
-        <v>-0.0771611123362362</v>
+        <v>0.09752270885948339</v>
       </c>
       <c r="D56">
-        <v>0.06315287273888792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05204394546693664</v>
+      </c>
+      <c r="E56">
+        <v>-0.03997719490980644</v>
+      </c>
+      <c r="F56">
+        <v>-0.01118408278525775</v>
+      </c>
+      <c r="G56">
+        <v>0.02486004252062229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05499117367280301</v>
+        <v>0.03695525876401429</v>
       </c>
       <c r="C58">
-        <v>-0.01961142413286485</v>
+        <v>0.02236126444761056</v>
       </c>
       <c r="D58">
-        <v>-0.4574239727797293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4037827205583867</v>
+      </c>
+      <c r="E58">
+        <v>-0.5085346480918236</v>
+      </c>
+      <c r="F58">
+        <v>-0.3805002446569966</v>
+      </c>
+      <c r="G58">
+        <v>-0.5594667224541995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1221299635944447</v>
+        <v>0.1388354420761314</v>
       </c>
       <c r="C59">
-        <v>0.2076191367506093</v>
+        <v>-0.1939218109437758</v>
       </c>
       <c r="D59">
-        <v>-0.0307060023609892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03289092382156168</v>
+      </c>
+      <c r="E59">
+        <v>-0.02677937845312169</v>
+      </c>
+      <c r="F59">
+        <v>0.03161204720077459</v>
+      </c>
+      <c r="G59">
+        <v>-0.004171786337759778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2965703097102395</v>
+        <v>0.269088784148795</v>
       </c>
       <c r="C60">
-        <v>-0.117719582455288</v>
+        <v>0.1024023362665421</v>
       </c>
       <c r="D60">
-        <v>-0.218850228739687</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2295838783920837</v>
+      </c>
+      <c r="E60">
+        <v>0.2600483081810304</v>
+      </c>
+      <c r="F60">
+        <v>-0.08208632215445835</v>
+      </c>
+      <c r="G60">
+        <v>0.05027324678800813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04772366783368619</v>
+        <v>0.0450439083758698</v>
       </c>
       <c r="C61">
-        <v>-0.05804354118752496</v>
+        <v>0.05668420262595714</v>
       </c>
       <c r="D61">
-        <v>-0.01813732991720353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04764625419012179</v>
+      </c>
+      <c r="E61">
+        <v>-0.0556473681224406</v>
+      </c>
+      <c r="F61">
+        <v>0.04285644070366824</v>
+      </c>
+      <c r="G61">
+        <v>0.07858329109793534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01858874635497556</v>
+        <v>0.01835923969223821</v>
       </c>
       <c r="C63">
-        <v>-0.0337195283697745</v>
+        <v>0.0302598286387749</v>
       </c>
       <c r="D63">
-        <v>0.01607584853542824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02260780528506195</v>
+      </c>
+      <c r="E63">
+        <v>-0.07149563555008545</v>
+      </c>
+      <c r="F63">
+        <v>0.02537202754527871</v>
+      </c>
+      <c r="G63">
+        <v>0.07250792314044208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05437796813577481</v>
+        <v>0.05892136289529559</v>
       </c>
       <c r="C64">
-        <v>-0.0476451270388934</v>
+        <v>0.05774721597170549</v>
       </c>
       <c r="D64">
-        <v>-0.008132056144518422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0147447436524007</v>
+      </c>
+      <c r="E64">
+        <v>-0.04711639924704503</v>
+      </c>
+      <c r="F64">
+        <v>0.0433347567969205</v>
+      </c>
+      <c r="G64">
+        <v>0.05891328938541354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07885871101069253</v>
+        <v>0.06465938254857416</v>
       </c>
       <c r="C65">
-        <v>-0.02669650800751214</v>
+        <v>0.02611846743598668</v>
       </c>
       <c r="D65">
-        <v>-0.06062034380443507</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09191786254780111</v>
+      </c>
+      <c r="E65">
+        <v>-0.05195242210254598</v>
+      </c>
+      <c r="F65">
+        <v>-0.006883339517576559</v>
+      </c>
+      <c r="G65">
+        <v>0.01015901932952125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06289245536563318</v>
+        <v>0.05537223745164744</v>
       </c>
       <c r="C66">
-        <v>-0.07912710671719109</v>
+        <v>0.07658720991488488</v>
       </c>
       <c r="D66">
-        <v>-0.04260977199538252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08247741294806318</v>
+      </c>
+      <c r="E66">
+        <v>-0.07255917275674877</v>
+      </c>
+      <c r="F66">
+        <v>0.0476007078113368</v>
+      </c>
+      <c r="G66">
+        <v>0.07382128167875381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05014023641852718</v>
+        <v>0.0436685030341431</v>
       </c>
       <c r="C67">
-        <v>-0.03179394502899866</v>
+        <v>0.028398700542627</v>
       </c>
       <c r="D67">
-        <v>0.02347929563319718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005846594427751259</v>
+      </c>
+      <c r="E67">
+        <v>-0.0368323009442383</v>
+      </c>
+      <c r="F67">
+        <v>0.01748941696573951</v>
+      </c>
+      <c r="G67">
+        <v>0.03300778307664231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.122425032578892</v>
+        <v>0.1454405989028706</v>
       </c>
       <c r="C68">
-        <v>0.2834596883797686</v>
+        <v>-0.2450581515055809</v>
       </c>
       <c r="D68">
-        <v>0.004074050161656856</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00989426835601891</v>
+      </c>
+      <c r="E68">
+        <v>-0.04836928190531207</v>
+      </c>
+      <c r="F68">
+        <v>0.002780542914000068</v>
+      </c>
+      <c r="G68">
+        <v>0.02181558967503723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09374120355908384</v>
+        <v>0.0904027480584163</v>
       </c>
       <c r="C69">
-        <v>-0.07090993047700615</v>
+        <v>0.08861581786628032</v>
       </c>
       <c r="D69">
-        <v>0.04581488209066899</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007308036019641495</v>
+      </c>
+      <c r="E69">
+        <v>-0.06305051488364175</v>
+      </c>
+      <c r="F69">
+        <v>0.04396993770305564</v>
+      </c>
+      <c r="G69">
+        <v>0.07730850485884871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1126795292158928</v>
+        <v>0.1406110408651839</v>
       </c>
       <c r="C71">
-        <v>0.2594179648651579</v>
+        <v>-0.2453826481990218</v>
       </c>
       <c r="D71">
-        <v>-0.01667562689616922</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01133368982923287</v>
+      </c>
+      <c r="E71">
+        <v>-0.06659080347910699</v>
+      </c>
+      <c r="F71">
+        <v>-0.003040879521963121</v>
+      </c>
+      <c r="G71">
+        <v>0.0525612848969696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1002928793587813</v>
+        <v>0.1060332469149949</v>
       </c>
       <c r="C72">
-        <v>-0.04014911714739047</v>
+        <v>0.04614305769075169</v>
       </c>
       <c r="D72">
-        <v>-0.002494484279044095</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03918726424260338</v>
+      </c>
+      <c r="E72">
+        <v>-0.0214843673053113</v>
+      </c>
+      <c r="F72">
+        <v>0.01583786208043808</v>
+      </c>
+      <c r="G72">
+        <v>0.1039966291024649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.377997816538768</v>
+        <v>0.3227812560299324</v>
       </c>
       <c r="C73">
-        <v>-0.04854043509330381</v>
+        <v>0.06417861915594775</v>
       </c>
       <c r="D73">
-        <v>-0.5086996694149202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4738794446227441</v>
+      </c>
+      <c r="E73">
+        <v>0.5094171931300974</v>
+      </c>
+      <c r="F73">
+        <v>-0.2273610916724758</v>
+      </c>
+      <c r="G73">
+        <v>0.01426318515804422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1061601006764859</v>
+        <v>0.1110324252201408</v>
       </c>
       <c r="C74">
-        <v>-0.09235137184550225</v>
+        <v>0.09051240803472314</v>
       </c>
       <c r="D74">
-        <v>0.04883435624484297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04474956731382439</v>
+      </c>
+      <c r="E74">
+        <v>-0.06474898893233876</v>
+      </c>
+      <c r="F74">
+        <v>-0.01712770524216673</v>
+      </c>
+      <c r="G74">
+        <v>0.0453208222914903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2592973114697908</v>
+        <v>0.2608952936259292</v>
       </c>
       <c r="C75">
-        <v>-0.08187984552649219</v>
+        <v>0.1183218136972758</v>
       </c>
       <c r="D75">
-        <v>0.1501646613898031</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1518470772903819</v>
+      </c>
+      <c r="E75">
+        <v>-0.02052528228091698</v>
+      </c>
+      <c r="F75">
+        <v>-0.04090089619288461</v>
+      </c>
+      <c r="G75">
+        <v>-0.04408408111966099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1173412768581635</v>
+        <v>0.1303215655609272</v>
       </c>
       <c r="C76">
-        <v>-0.07716771949707477</v>
+        <v>0.08788352354672355</v>
       </c>
       <c r="D76">
-        <v>0.07696020921677393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07371661410161227</v>
+      </c>
+      <c r="E76">
+        <v>-0.08532688729037231</v>
+      </c>
+      <c r="F76">
+        <v>0.009303183152141023</v>
+      </c>
+      <c r="G76">
+        <v>0.0324134584428401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08450084777090072</v>
+        <v>0.0697341669524997</v>
       </c>
       <c r="C77">
-        <v>-0.03759436882726312</v>
+        <v>0.0566290157361277</v>
       </c>
       <c r="D77">
-        <v>-0.0554604718399455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0748771751135914</v>
+      </c>
+      <c r="E77">
+        <v>-0.1030416085431501</v>
+      </c>
+      <c r="F77">
+        <v>0.1831381876235063</v>
+      </c>
+      <c r="G77">
+        <v>-0.1204328972478742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0501820937633782</v>
+        <v>0.04943702437908658</v>
       </c>
       <c r="C78">
-        <v>-0.03899455695708542</v>
+        <v>0.05133501816291438</v>
       </c>
       <c r="D78">
-        <v>-0.04017888886559966</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07409118665812997</v>
+      </c>
+      <c r="E78">
+        <v>-0.06629421484994977</v>
+      </c>
+      <c r="F78">
+        <v>0.04660931238805761</v>
+      </c>
+      <c r="G78">
+        <v>0.06603060277430037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0006391110113376101</v>
+        <v>0.03536471017297696</v>
       </c>
       <c r="C79">
-        <v>-0.001345876484862991</v>
+        <v>0.04906268153762767</v>
       </c>
       <c r="D79">
-        <v>-0.005064786254616724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0818179931536928</v>
+      </c>
+      <c r="E79">
+        <v>-0.0758405843771191</v>
+      </c>
+      <c r="F79">
+        <v>-0.02870722242576547</v>
+      </c>
+      <c r="G79">
+        <v>0.03559330791802673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04000401571268969</v>
+        <v>0.03087958957462819</v>
       </c>
       <c r="C80">
-        <v>-0.05213508403624094</v>
+        <v>0.05137365244457087</v>
       </c>
       <c r="D80">
-        <v>-0.03463791875543231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04588057545424881</v>
+      </c>
+      <c r="E80">
+        <v>-0.01448378201408267</v>
+      </c>
+      <c r="F80">
+        <v>0.05188047783454779</v>
+      </c>
+      <c r="G80">
+        <v>-0.0001475664216091983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1463158831867665</v>
+        <v>0.1439800188006803</v>
       </c>
       <c r="C81">
-        <v>-0.06843395430670035</v>
+        <v>0.08912572588208553</v>
       </c>
       <c r="D81">
-        <v>0.1177304805091108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1184187289708162</v>
+      </c>
+      <c r="E81">
+        <v>-0.06830529476225768</v>
+      </c>
+      <c r="F81">
+        <v>-0.02048250160102379</v>
+      </c>
+      <c r="G81">
+        <v>-0.0164460026361983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.207120526855917</v>
+        <v>0.2350860401758365</v>
       </c>
       <c r="C82">
-        <v>-0.08508989589728649</v>
+        <v>0.1524161013642534</v>
       </c>
       <c r="D82">
-        <v>0.2075944196967128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2493033376533919</v>
+      </c>
+      <c r="E82">
+        <v>0.03563571236314029</v>
+      </c>
+      <c r="F82">
+        <v>0.04620673377006385</v>
+      </c>
+      <c r="G82">
+        <v>0.09899655524498434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04585963428481651</v>
+        <v>0.03126203461349038</v>
       </c>
       <c r="C83">
-        <v>-0.03182054101723511</v>
+        <v>0.04513364056895814</v>
       </c>
       <c r="D83">
-        <v>-0.04420669383704481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03646565464192859</v>
+      </c>
+      <c r="E83">
+        <v>-0.0215638112506062</v>
+      </c>
+      <c r="F83">
+        <v>0.02435280165116884</v>
+      </c>
+      <c r="G83">
+        <v>-0.002069927778375056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002401858695706884</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005480424122036692</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0001969891109325006</v>
+      </c>
+      <c r="E84">
+        <v>-0.003600193259716528</v>
+      </c>
+      <c r="F84">
+        <v>-0.001605310177962775</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004840362881579672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2208083887780847</v>
+        <v>0.204533028432857</v>
       </c>
       <c r="C85">
-        <v>-0.09041047602809391</v>
+        <v>0.1085266702525854</v>
       </c>
       <c r="D85">
-        <v>0.1652328398111318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1321242300235324</v>
+      </c>
+      <c r="E85">
+        <v>0.009007683367343242</v>
+      </c>
+      <c r="F85">
+        <v>-0.09893717183818537</v>
+      </c>
+      <c r="G85">
+        <v>0.008662515971644937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01090477842954397</v>
+        <v>0.01421037529408123</v>
       </c>
       <c r="C86">
-        <v>-0.02879191808037397</v>
+        <v>0.01757346407349384</v>
       </c>
       <c r="D86">
-        <v>-0.04493113218065823</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07171280611932998</v>
+      </c>
+      <c r="E86">
+        <v>-0.08148945347483857</v>
+      </c>
+      <c r="F86">
+        <v>0.06471508646828647</v>
+      </c>
+      <c r="G86">
+        <v>0.07188490247761746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.031602288731281</v>
+        <v>0.03128483577293666</v>
       </c>
       <c r="C87">
-        <v>-0.003481303726927698</v>
+        <v>0.0131434498108878</v>
       </c>
       <c r="D87">
-        <v>-0.07495800343677063</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09676584874161026</v>
+      </c>
+      <c r="E87">
+        <v>-0.1250989037723949</v>
+      </c>
+      <c r="F87">
+        <v>0.07156845789182618</v>
+      </c>
+      <c r="G87">
+        <v>0.001716906482611105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1096690043146875</v>
+        <v>0.09374277483325118</v>
       </c>
       <c r="C88">
-        <v>-0.08283409719096119</v>
+        <v>0.0671780218583751</v>
       </c>
       <c r="D88">
-        <v>0.01777899499183328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01634988802407913</v>
+      </c>
+      <c r="E88">
+        <v>-0.05392233062706794</v>
+      </c>
+      <c r="F88">
+        <v>0.03633942393499327</v>
+      </c>
+      <c r="G88">
+        <v>0.03074939869160611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1732307212194037</v>
+        <v>0.2102353342624679</v>
       </c>
       <c r="C89">
-        <v>0.3843576238807458</v>
+        <v>-0.3860510601508939</v>
       </c>
       <c r="D89">
-        <v>0.02644293871397672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.008250160646959884</v>
+      </c>
+      <c r="E89">
+        <v>-0.0779366956315191</v>
+      </c>
+      <c r="F89">
+        <v>0.08344239649743586</v>
+      </c>
+      <c r="G89">
+        <v>0.001616582372531092</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1664039797274302</v>
+        <v>0.1910521474837411</v>
       </c>
       <c r="C90">
-        <v>0.3333303406499646</v>
+        <v>-0.3115788746306024</v>
       </c>
       <c r="D90">
-        <v>0.0308295038345877</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01170393877680935</v>
+      </c>
+      <c r="E90">
+        <v>-0.05795089360569772</v>
+      </c>
+      <c r="F90">
+        <v>0.02172543112754805</v>
+      </c>
+      <c r="G90">
+        <v>0.01260728961127473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1922671880646229</v>
+        <v>0.1885952548797807</v>
       </c>
       <c r="C91">
-        <v>-0.1180835463030443</v>
+        <v>0.1383666829902227</v>
       </c>
       <c r="D91">
-        <v>0.1396724930619138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1263405496281762</v>
+      </c>
+      <c r="E91">
+        <v>-0.05428190589516051</v>
+      </c>
+      <c r="F91">
+        <v>-0.009375521080698586</v>
+      </c>
+      <c r="G91">
+        <v>-0.005212227757215167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1594115623549712</v>
+        <v>0.1779650857151421</v>
       </c>
       <c r="C92">
-        <v>0.3015104087699713</v>
+        <v>-0.3022125991366491</v>
       </c>
       <c r="D92">
-        <v>0.0175964310737866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009644109858145076</v>
+      </c>
+      <c r="E92">
+        <v>-0.06236260545148191</v>
+      </c>
+      <c r="F92">
+        <v>0.04810773172435956</v>
+      </c>
+      <c r="G92">
+        <v>0.03279514607166218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1854927287190711</v>
+        <v>0.210289013583599</v>
       </c>
       <c r="C93">
-        <v>0.3371993482629843</v>
+        <v>-0.3220377362858262</v>
       </c>
       <c r="D93">
-        <v>0.03886808387945343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01659166538801097</v>
+      </c>
+      <c r="E93">
+        <v>-0.0434941419447063</v>
+      </c>
+      <c r="F93">
+        <v>-0.006753873197221183</v>
+      </c>
+      <c r="G93">
+        <v>0.03642828573272438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3570994390092981</v>
+        <v>0.3508703049222859</v>
       </c>
       <c r="C94">
-        <v>-0.1208430431937687</v>
+        <v>0.1712880039500558</v>
       </c>
       <c r="D94">
-        <v>0.4211164302987405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4063987521493266</v>
+      </c>
+      <c r="E94">
+        <v>0.002926780868870224</v>
+      </c>
+      <c r="F94">
+        <v>-0.0824942385845867</v>
+      </c>
+      <c r="G94">
+        <v>-0.4470144655184274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1218568288967265</v>
+        <v>0.08959720806599067</v>
       </c>
       <c r="C95">
-        <v>-0.04427585719465806</v>
+        <v>0.0530695170009733</v>
       </c>
       <c r="D95">
-        <v>-0.2116752755286327</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1932155023643912</v>
+      </c>
+      <c r="E95">
+        <v>0.1520876567337425</v>
+      </c>
+      <c r="F95">
+        <v>0.7895296600926052</v>
+      </c>
+      <c r="G95">
+        <v>-0.4335183759865726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1876120114431283</v>
+        <v>0.1852179689157128</v>
       </c>
       <c r="C98">
-        <v>-0.02996205926619714</v>
+        <v>0.04720666942889216</v>
       </c>
       <c r="D98">
-        <v>-0.1905044574975712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1943920388702489</v>
+      </c>
+      <c r="E98">
+        <v>0.158936305959627</v>
+      </c>
+      <c r="F98">
+        <v>-0.0938168218812318</v>
+      </c>
+      <c r="G98">
+        <v>0.07101250154036769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009525523820291324</v>
+        <v>0.008446182442121737</v>
       </c>
       <c r="C101">
-        <v>-0.03170661016426819</v>
+        <v>0.02800438001785356</v>
       </c>
       <c r="D101">
-        <v>0.007912827898622063</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02553422548415189</v>
+      </c>
+      <c r="E101">
+        <v>-0.06539547151091807</v>
+      </c>
+      <c r="F101">
+        <v>0.05194545301058131</v>
+      </c>
+      <c r="G101">
+        <v>0.0856232837449427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1219975791719013</v>
+        <v>0.1256960643385194</v>
       </c>
       <c r="C102">
-        <v>-0.06060564619344962</v>
+        <v>0.09559573934700812</v>
       </c>
       <c r="D102">
-        <v>0.05321295004218547</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06101049724327178</v>
+      </c>
+      <c r="E102">
+        <v>0.01089576024675793</v>
+      </c>
+      <c r="F102">
+        <v>0.02606815149796909</v>
+      </c>
+      <c r="G102">
+        <v>0.00281473801775283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
